--- a/biology/Botanique/Rhaphiolepis/Rhaphiolepis.xlsx
+++ b/biology/Botanique/Rhaphiolepis/Rhaphiolepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhaphiolepis (du grec rhapis qui signifie aiguille et lepis qui désigne une coquille ou des écailles) est un genre de plantes à fleurs appartenant à la famille des Rosaceae.
 Originaire du sud de la Chine, il est répandu comme plantes d'ornement sous tous climats de type méditerranéen car il ne supporte pas bien les températures négatives (maximum -10 °C).
@@ -512,7 +524,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rhaphiolepis sont des arbustes à croissance lente pouvant mesurer jusqu'à 2 mètres de haut.
 Leurs feuilles épaisses de couleur vert foncé sont persistantes, dentées et mesurent de 5 à 7 cm de long.
@@ -547,7 +561,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rhaphiolepis delacourii André
 Rhaphiolepis indica (L.) Lindl. ex Ker Gawl.
@@ -579,7 +595,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont utilisés comme arbuste d'ornement car appréciés pour leur jolie floraison rose.
 L'arbuste poussant lentement, on le greffe souvent sur néflier du Japon (Eriobotrya japonica), cognassier (Cydonia oblonga) ou aubépine. L'autre avantage de cette greffe est que cela permet de le planter dans des sols plus calcaires.
